--- a/part2/tables-2/metrics_eval_part-2_scale_hidden.xlsx
+++ b/part2/tables-2/metrics_eval_part-2_scale_hidden.xlsx
@@ -37,22 +37,22 @@
     <t>max_train_score</t>
   </si>
   <si>
+    <t>(30, 20)</t>
+  </si>
+  <si>
+    <t>(50, 40)</t>
+  </si>
+  <si>
+    <t>(85, 50)</t>
+  </si>
+  <si>
+    <t>(50,)</t>
+  </si>
+  <si>
+    <t>(75,)</t>
+  </si>
+  <si>
     <t>(100, 1)</t>
-  </si>
-  <si>
-    <t>(50, 40)</t>
-  </si>
-  <si>
-    <t>(85, 50)</t>
-  </si>
-  <si>
-    <t>(30, 20)</t>
-  </si>
-  <si>
-    <t>(75,)</t>
-  </si>
-  <si>
-    <t>(50,)</t>
   </si>
   <si>
     <t>(40,)</t>
@@ -447,186 +447,186 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.735652</v>
+        <v>0.772851</v>
       </c>
       <c r="B2">
-        <v>0.188566</v>
+        <v>0.239862</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>0.882288</v>
+        <v>0.853653</v>
       </c>
       <c r="E2">
-        <v>0.031912</v>
+        <v>0.026403</v>
       </c>
       <c r="F2">
-        <v>0.924901</v>
+        <v>0.904163</v>
       </c>
       <c r="G2">
-        <v>0.92547</v>
+        <v>0.910979</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.564405</v>
+        <v>0.736916</v>
       </c>
       <c r="B3">
-        <v>0.116636</v>
+        <v>0.164048</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3">
-        <v>0.578276</v>
+        <v>0.823245</v>
       </c>
       <c r="E3">
-        <v>0.055766</v>
+        <v>0.028151</v>
       </c>
       <c r="F3">
-        <v>0.74554</v>
+        <v>0.938779</v>
       </c>
       <c r="G3">
-        <v>0.682683</v>
+        <v>0.901222</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.53677</v>
+        <v>0.667248</v>
       </c>
       <c r="B4">
-        <v>0.129108</v>
+        <v>0.130998</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>0.535492</v>
+        <v>0.692622</v>
       </c>
       <c r="E4">
-        <v>0.078546</v>
+        <v>0.044774</v>
       </c>
       <c r="F4">
-        <v>0.739944</v>
+        <v>0.838109</v>
       </c>
       <c r="G4">
-        <v>0.714587</v>
+        <v>0.7980969999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.425176</v>
+        <v>0.65763</v>
       </c>
       <c r="B5">
-        <v>0.159129</v>
+        <v>0.281689</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.443178</v>
+        <v>0.827488</v>
       </c>
       <c r="E5">
-        <v>0.055482</v>
+        <v>0.047526</v>
       </c>
       <c r="F5">
-        <v>0.635077</v>
+        <v>0.894997</v>
       </c>
       <c r="G5">
-        <v>0.548295</v>
+        <v>0.895165</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.384355</v>
+        <v>0.656183</v>
       </c>
       <c r="B6">
-        <v>0.07990800000000001</v>
+        <v>0.351658</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6">
-        <v>0.398513</v>
+        <v>0.812399</v>
       </c>
       <c r="E6">
-        <v>0.023399</v>
+        <v>0.043695</v>
       </c>
       <c r="F6">
-        <v>0.5154840000000001</v>
+        <v>0.889552</v>
       </c>
       <c r="G6">
-        <v>0.437165</v>
+        <v>0.903994</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.245617</v>
+        <v>0.170328</v>
       </c>
       <c r="B7">
-        <v>0.123448</v>
+        <v>0.036308</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>0.290739</v>
+        <v>0.170816</v>
       </c>
       <c r="E7">
-        <v>0.036384</v>
+        <v>0.008958000000000001</v>
       </c>
       <c r="F7">
-        <v>0.447914</v>
+        <v>0.223381</v>
       </c>
       <c r="G7">
-        <v>0.376909</v>
+        <v>0.184163</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>-0.151002</v>
+        <v>-0.111753</v>
       </c>
       <c r="B8">
-        <v>0.423691</v>
+        <v>0.376219</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8">
-        <v>-0.200446</v>
+        <v>-0.156187</v>
       </c>
       <c r="E8">
-        <v>0.166559</v>
+        <v>0.160667</v>
       </c>
       <c r="F8">
-        <v>0.282435</v>
+        <v>0.281257</v>
       </c>
       <c r="G8">
-        <v>0.050596</v>
+        <v>0.091005</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>-1.077825</v>
+        <v>-0.226194</v>
       </c>
       <c r="B9">
-        <v>1.923815</v>
+        <v>4.22232</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9">
-        <v>-0.253873</v>
+        <v>0.820927</v>
       </c>
       <c r="E9">
-        <v>0.235177</v>
+        <v>0.029963</v>
       </c>
       <c r="F9">
-        <v>0.37774</v>
+        <v>0.9226259999999999</v>
       </c>
       <c r="G9">
-        <v>0.157278</v>
+        <v>0.900903</v>
       </c>
     </row>
   </sheetData>
